--- a/DataFile/testdata.xlsx
+++ b/DataFile/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qatester4\Documents\workspace-sts-3.9.9.RELEASE\Selenium_Practice\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC3B07-27C1-435C-A9B5-6E8DA9E47FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D2F708-AB41-4C14-B29D-2C1056851264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Cucum" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -61,16 +62,39 @@
   </si>
   <si>
     <t>Tony123@mail.com</t>
+  </si>
+  <si>
+    <t>http://www.leafground.com/</t>
+  </si>
+  <si>
+    <t>estleaf123@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Leaf</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,14 +138,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,4 +496,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DFBBA-BEE5-466F-9910-D58E51909FDE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4005B99-22E1-4A72-880D-6EB61E4023F7}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D792D354-BAF8-4E44-9D68-7BB04FA8D443}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataFile/testdata.xlsx
+++ b/DataFile/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qatester4\Documents\workspace-sts-3.9.9.RELEASE\Selenium_Practice\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D2F708-AB41-4C14-B29D-2C1056851264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EC253D-7D1E-4F0F-9A2E-1B6CBB27709C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>https://letcode.in/edit</t>
+  </si>
+  <si>
+    <t>Dinesh Joseph</t>
   </si>
 </sst>
 </file>
@@ -500,17 +506,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DFBBA-BEE5-466F-9910-D58E51909FDE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,6 +544,14 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DataFile/testdata.xlsx
+++ b/DataFile/testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qatester4\Documents\workspace-sts-3.9.9.RELEASE\Selenium_Practice\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EC253D-7D1E-4F0F-9A2E-1B6CBB27709C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AC4708-2A41-442B-8F2D-659AA5EEF03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Cucum" sheetId="2" r:id="rId2"/>
+    <sheet name="data_read_01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +84,78 @@
   </si>
   <si>
     <t>Dinesh Joseph</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONENO</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>dinesh123@mail.com</t>
+  </si>
+  <si>
+    <t>Sundar</t>
+  </si>
+  <si>
+    <t>Pitchai</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>sundar123@mail.com</t>
+  </si>
+  <si>
+    <t>Johny</t>
+  </si>
+  <si>
+    <t>Dhip</t>
+  </si>
+  <si>
+    <t>Austrelia</t>
+  </si>
+  <si>
+    <t>johny123@mail.com</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>joseph123@mail.com</t>
+  </si>
+  <si>
+    <t>Allu</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Andhra</t>
+  </si>
+  <si>
+    <t>arjun123@mail.com</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -106,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,10 +227,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DFBBA-BEE5-466F-9910-D58E51909FDE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -561,4 +642,136 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414E6B23-CA75-4E4C-85E1-0F40085DFA5C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3">
+        <v>9883483432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8237432984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9238785245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9876213453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8765678934</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{908983B9-84A3-4B16-A224-CF4EFEC3FC47}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{AF2D2851-22E6-48E7-992C-1B6D786DB571}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{0D31454A-AD02-4857-8C81-4AC6DE3AAE30}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{5B272676-A7D5-4E74-81FB-DA161D063FA5}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{5C44EDA3-C34B-4685-98C7-8690B405A69B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>